--- a/Specifications (仕様書)/Database/ERD.xlsx
+++ b/Specifications (仕様書)/Database/ERD.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tổng quan" sheetId="1" r:id="rId1"/>
     <sheet name="ERD" sheetId="2" r:id="rId2"/>
     <sheet name="Chi tiết" sheetId="3" r:id="rId3"/>
-    <sheet name="Database Diagram" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -342,49 +341,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>370209</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>19832</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10123809" cy="8980952"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -726,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -794,19 +750,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>